--- a/data/trans_orig/MOL_RUIDO_OCIO_DIA-Clase-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_OCIO_DIA-Clase-trans_orig.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,4; 2,95</t>
+          <t>2,41; 2,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,4; 2,95</t>
+          <t>2,41; 2,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,5; 2,88</t>
+          <t>2,49; 2,87</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,32</t>
+          <t>2,47; 3,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,28; 2,92</t>
+          <t>2,3; 2,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,49; 2,99</t>
+          <t>2,5; 3,02</t>
         </is>
       </c>
     </row>
@@ -684,12 +684,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,49</t>
+          <t>1,34; 2,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,56; 2,23</t>
+          <t>1,53; 2,24</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,87; 2,67</t>
+          <t>1,89; 2,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,88; 2,77</t>
+          <t>1,94; 2,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,0; 2,59</t>
+          <t>2,01; 2,56</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,92; 3,82</t>
+          <t>1,89; 3,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 2,45</t>
+          <t>1,45; 2,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,71; 2,66</t>
+          <t>1,77; 2,69</t>
         </is>
       </c>
     </row>
@@ -806,12 +806,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,38</t>
+          <t>1,56; 3,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,6; 2,79</t>
+          <t>1,62; 2,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,76; 2,67</t>
+          <t>1,75; 2,79</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,31; 2,67</t>
+          <t>2,31; 2,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,22; 2,54</t>
+          <t>2,21; 2,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,3; 2,55</t>
+          <t>2,31; 2,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/MOL_RUIDO_OCIO_DIA-Clase-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_OCIO_DIA-Clase-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Molestia del ruido del ocio durante el día en el interior de la vivienda</t>
+          <t>Molestia del ruido del ocio durante el día en el interior de la vivienda (tasa de respuesta: 99,63%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/MOL_RUIDO_OCIO_DIA-Clase-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_OCIO_DIA-Clase-trans_orig.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,41; 2,99</t>
+          <t>2,39; 2,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,41; 2,98</t>
+          <t>2,41; 2,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,49; 2,87</t>
+          <t>2,48; 2,88</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 3,29</t>
+          <t>2,52; 3,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,3; 2,95</t>
+          <t>2,3; 2,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,02</t>
+          <t>2,47; 3,0</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 2,33</t>
+          <t>1,48; 2,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 2,48</t>
+          <t>1,33; 2,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 2,24</t>
+          <t>1,57; 2,22</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 2,66</t>
+          <t>1,86; 2,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 2,79</t>
+          <t>1,92; 2,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,01; 2,56</t>
+          <t>2,01; 2,61</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,89; 3,79</t>
+          <t>1,9; 3,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,45; 2,44</t>
+          <t>1,44; 2,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,77; 2,69</t>
+          <t>1,78; 2,77</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,56; 3,5</t>
+          <t>1,57; 3,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,62; 2,76</t>
+          <t>1,63; 2,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,75; 2,79</t>
+          <t>1,8; 2,73</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,31; 2,68</t>
+          <t>2,29; 2,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,21; 2,55</t>
+          <t>2,21; 2,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,31; 2,56</t>
+          <t>2,32; 2,55</t>
         </is>
       </c>
     </row>
